--- a/PLANTILLAS APLICATIVO/AGRONET.xlsx
+++ b/PLANTILLAS APLICATIVO/AGRONET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287708E6-DCCA-4E70-9EEF-04325C33377E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B9937F-4997-479B-AD36-9FA3913DD28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{03E83E84-8E43-4F48-9518-44737AB1B007}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>AÑO</t>
   </si>
@@ -45,16 +45,65 @@
     <t>TIPO DE PRODUCTO</t>
   </si>
   <si>
-    <t>AREA SEMBRADA</t>
-  </si>
-  <si>
-    <t>AREA COSECHADA</t>
-  </si>
-  <si>
-    <t>PRODUCCION</t>
-  </si>
-  <si>
-    <t>RENDIMIENTO</t>
+    <t>CASANARE</t>
+  </si>
+  <si>
+    <t>BOYACA</t>
+  </si>
+  <si>
+    <t>AGUAZUL</t>
+  </si>
+  <si>
+    <t>YOPAL</t>
+  </si>
+  <si>
+    <t>CHIVOR</t>
+  </si>
+  <si>
+    <t>ALMEDIA</t>
+  </si>
+  <si>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>SANTA MARIA</t>
+  </si>
+  <si>
+    <t>GARAGOA</t>
+  </si>
+  <si>
+    <t>TUNJA</t>
+  </si>
+  <si>
+    <t>ARROZ</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>CEBOLLA</t>
+  </si>
+  <si>
+    <t>NARANJA</t>
+  </si>
+  <si>
+    <t>YUCA</t>
+  </si>
+  <si>
+    <t>PIÑA</t>
+  </si>
+  <si>
+    <t>AREA SEMBRADA (Ha)</t>
+  </si>
+  <si>
+    <t>AREA COSECHADA
+(Ha)</t>
+  </si>
+  <si>
+    <t>RENDIMIENTO (Ton/Ha)</t>
+  </si>
+  <si>
+    <t>PRODUCCION (Ton)</t>
   </si>
 </sst>
 </file>
@@ -119,11 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,20 +489,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D920B4C-CCC5-4177-BA8B-A369413796A6}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,16 +518,286 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5890</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4581</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6985</v>
+      </c>
+      <c r="H2" s="3">
+        <f>+G2/F2</f>
+        <v>1.5247762497271338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2658</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1985</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2698</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H11" si="0">+G3/F3</f>
+        <v>1.3591939546599496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>520</v>
+      </c>
+      <c r="F4" s="2">
+        <v>368</v>
+      </c>
+      <c r="G4" s="2">
+        <v>569</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5461956521739131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>350</v>
+      </c>
+      <c r="F5" s="2">
+        <v>254</v>
+      </c>
+      <c r="G5" s="2">
+        <v>365</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4370078740157479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>698</v>
+      </c>
+      <c r="F6" s="2">
+        <v>598</v>
+      </c>
+      <c r="G6" s="2">
+        <v>254</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42474916387959866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>597</v>
+      </c>
+      <c r="F7" s="2">
+        <v>481</v>
+      </c>
+      <c r="G7" s="2">
+        <v>210</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43659043659043661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>251</v>
+      </c>
+      <c r="F8" s="2">
+        <v>195</v>
+      </c>
+      <c r="G8" s="2">
+        <v>251</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2871794871794873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>698</v>
+      </c>
+      <c r="F9" s="2">
+        <v>562</v>
+      </c>
+      <c r="G9" s="2">
+        <v>620</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.103202846975089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1540</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1250</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1052</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84160000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1388888888888888</v>
       </c>
     </row>
   </sheetData>
